--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_9.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_9.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$A$1:$V$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">template!$A$1:$V$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">template!$A$1:$V$73</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">template!$A$1:$V$73</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -193,7 +194,7 @@
     <t xml:space="preserve">SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Marcas CRAFT</t>
+    <t xml:space="preserve">Marcas Craft</t>
   </si>
   <si>
     <t xml:space="preserve">Product Availability KPI: If in scene type "Cooler" there is at least 1 facing of product brand Cucapa, Hoegaarden, Bocanegra, Guiness and Manufacturer "ABI-GM", then pass.</t>
@@ -1001,20 +1002,20 @@
   <dimension ref="1:73"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="4" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="20" min="18" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="103.540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="4" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="20" min="18" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="102.459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="1" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54548,6 +54549,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -54672,6 +54676,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_9.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_9.xlsx
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">template!$A$1:$V$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">template!$A$1:$V$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">template!$A$1:$V$73</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">template!$A$1:$V$73</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -365,7 +366,7 @@
     <t xml:space="preserve">Visibilidad AC/BET</t>
   </si>
   <si>
-    <t xml:space="preserve">Exhibicion Especial, Big Bet</t>
+    <t xml:space="preserve">Exhibicion Especial, Big Bet, POP Interior, POP Exterior</t>
   </si>
   <si>
     <t xml:space="preserve">Product Availability KPI: If in any of the scene types there is at least 1 facing for attribute AC/BET "Yes" and Manufacturer "ABI-GM", then pass.</t>
@@ -996,26 +997,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S45" activeCellId="0" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="4" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="20" min="18" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="102.459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.9183673469388"/>
+    <col collapsed="false" hidden="false" max="14" min="4" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="69.0816326530612"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="101.244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,7 +1089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2148,7 +2151,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -3210,7 +3213,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -4276,7 +4279,7 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -5342,7 +5345,7 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -6400,7 +6403,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -7458,7 +7461,7 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -8524,7 +8527,7 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -9582,7 +9585,7 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -10644,7 +10647,7 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="13" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
         <v>66</v>
       </c>
@@ -10702,7 +10705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
         <v>66</v>
       </c>
@@ -11766,7 +11769,7 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
         <v>66</v>
       </c>
@@ -12830,7 +12833,7 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
         <v>66</v>
       </c>
@@ -13890,7 +13893,7 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
         <v>66</v>
       </c>
@@ -14950,7 +14953,7 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
         <v>66</v>
       </c>
@@ -16010,7 +16013,7 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -17070,7 +17073,7 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
         <v>66</v>
       </c>
@@ -19198,7 +19201,7 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
         <v>66</v>
       </c>
@@ -20266,7 +20269,7 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
         <v>66</v>
       </c>
@@ -21334,7 +21337,7 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
         <v>66</v>
       </c>
@@ -21387,7 +21390,7 @@
       <c r="R22" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="S22" s="8" t="s">
         <v>111</v>
       </c>
       <c r="T22" s="12" t="s">
@@ -22402,7 +22405,7 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="18" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
         <v>113</v>
       </c>
@@ -22468,7 +22471,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="18" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
         <v>113</v>
       </c>
@@ -22534,7 +22537,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
         <v>113</v>
       </c>
@@ -23598,7 +23601,7 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
         <v>113</v>
       </c>
@@ -24658,7 +24661,7 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
         <v>113</v>
       </c>
@@ -25718,7 +25721,7 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
         <v>113</v>
       </c>
@@ -26778,7 +26781,7 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
         <v>113</v>
       </c>
@@ -27838,7 +27841,7 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
         <v>113</v>
       </c>
@@ -27891,7 +27894,7 @@
       <c r="R30" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="S30" s="16" t="s">
+      <c r="S30" s="8" t="s">
         <v>111</v>
       </c>
       <c r="T30" s="17" t="s">
@@ -28906,7 +28909,7 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>115</v>
       </c>
@@ -29966,7 +29969,7 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>115</v>
       </c>
@@ -31026,7 +31029,7 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>115</v>
       </c>
@@ -32094,7 +32097,7 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>115</v>
       </c>
@@ -33154,7 +33157,7 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>115</v>
       </c>
@@ -34214,7 +34217,7 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>115</v>
       </c>
@@ -35274,7 +35277,7 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>115</v>
       </c>
@@ -36334,7 +36337,7 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>115</v>
       </c>
@@ -37402,7 +37405,7 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -38466,7 +38469,7 @@
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>123</v>
       </c>
@@ -39534,7 +39537,7 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>123</v>
       </c>
@@ -40594,7 +40597,7 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -41654,7 +41657,7 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>123</v>
       </c>
@@ -42714,7 +42717,7 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>123</v>
       </c>
@@ -44842,7 +44845,7 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
@@ -45906,7 +45909,7 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
         <v>124</v>
       </c>
@@ -46964,7 +46967,7 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
         <v>124</v>
       </c>
@@ -49088,7 +49091,7 @@
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
         <v>124</v>
       </c>
@@ -50154,7 +50157,7 @@
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
         <v>124</v>
       </c>
@@ -51212,7 +51215,7 @@
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
         <v>124</v>
       </c>
@@ -52270,7 +52273,7 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
         <v>124</v>
       </c>
@@ -53328,7 +53331,7 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="24" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="s">
         <v>124</v>
       </c>
@@ -53384,7 +53387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
         <v>124</v>
       </c>
@@ -53448,7 +53451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
         <v>124</v>
       </c>
@@ -53512,7 +53515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
         <v>124</v>
       </c>
@@ -53572,7 +53575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
         <v>124</v>
       </c>
@@ -53632,7 +53635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
         <v>124</v>
       </c>
@@ -53692,7 +53695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
         <v>124</v>
       </c>
@@ -53752,7 +53755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
         <v>124</v>
       </c>
@@ -53812,7 +53815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="s">
         <v>124</v>
       </c>
@@ -53872,7 +53875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
         <v>124</v>
       </c>
@@ -53932,7 +53935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
         <v>124</v>
       </c>
@@ -53990,7 +53993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="23" t="s">
         <v>124</v>
       </c>
@@ -54050,7 +54053,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="s">
         <v>124</v>
       </c>
@@ -54110,7 +54113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="23" t="s">
         <v>124</v>
       </c>
@@ -54168,7 +54171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
         <v>124</v>
       </c>
@@ -54222,7 +54225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="23" t="s">
         <v>124</v>
       </c>
@@ -54276,7 +54279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
         <v>124</v>
       </c>
@@ -54338,7 +54341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
         <v>124</v>
       </c>
@@ -54400,7 +54403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
         <v>124</v>
       </c>
@@ -54462,7 +54465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
         <v>124</v>
       </c>
@@ -54525,7 +54528,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V73"/>
+  <autoFilter ref="A1:V73">
+    <filterColumn colId="18">
+      <filters>
+        <filter val="Exhibicion Especial, Big Bet"/>
+        <filter val="POP Interior, POP Exterior"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -54550,7 +54560,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54677,7 +54687,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_9.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_9.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">template!$A$1:$V$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">template!$A$1:$V$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">template!$A$1:$V$73</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">template!$A$1:$V$73</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1002,23 +1003,25 @@
   </sheetPr>
   <dimension ref="1:73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S45" activeCellId="0" sqref="S45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.9183673469388"/>
-    <col collapsed="false" hidden="false" max="14" min="4" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="69.0816326530612"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="101.244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.2397959183674"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="65.1479591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="68.3061224489796"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="100.163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="1" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9585,7 +9588,7 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -9601,7 +9604,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>61</v>
@@ -10705,7 +10708,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
         <v>66</v>
       </c>
@@ -10721,7 +10724,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>75</v>
@@ -11769,7 +11772,7 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
         <v>66</v>
       </c>
@@ -11785,7 +11788,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="n">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>80</v>
@@ -18133,7 +18136,7 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
         <v>66</v>
       </c>
@@ -21337,7 +21340,7 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
         <v>66</v>
       </c>
@@ -22537,7 +22540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
         <v>113</v>
       </c>
@@ -22553,7 +22556,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16" t="n">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>80</v>
@@ -27841,7 +27844,7 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
         <v>113</v>
       </c>
@@ -36337,7 +36340,7 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>115</v>
       </c>
@@ -37405,7 +37408,7 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -37421,7 +37424,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>61</v>
@@ -43777,7 +43780,7 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>123</v>
       </c>
@@ -44845,7 +44848,7 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
@@ -44861,7 +44864,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>61</v>
@@ -48025,7 +48028,7 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
         <v>124</v>
       </c>
@@ -54529,11 +54532,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:V73">
-    <filterColumn colId="18">
-      <filters>
-        <filter val="Exhibicion Especial, Big Bet"/>
-        <filter val="POP Interior, POP Exterior"/>
-      </filters>
+    <filterColumn colId="21">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Survey"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -54560,7 +54562,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54687,7 +54689,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
